--- a/Сourse I/Алгоритмы Python/Part2/семинары/pract4/отчет.xlsx
+++ b/Сourse I/Алгоритмы Python/Part2/семинары/pract4/отчет.xlsx
@@ -7,17 +7,18 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Студенты" sheetId="1" r:id="rId1"/>
-    <sheet name="Работы" sheetId="2" r:id="rId2"/>
-    <sheet name="Аттестации" sheetId="3" r:id="rId3"/>
-    <sheet name="Экзамены" sheetId="4" r:id="rId4"/>
+    <sheet name="Общее" sheetId="1" r:id="rId1"/>
+    <sheet name="Студенты" sheetId="2" r:id="rId2"/>
+    <sheet name="Работы" sheetId="3" r:id="rId3"/>
+    <sheet name="Аттестации" sheetId="4" r:id="rId4"/>
+    <sheet name="Экзамены" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="44">
   <si>
     <t>ФИО</t>
   </si>
@@ -102,6 +103,42 @@
   </si>
   <si>
     <t>тестирование</t>
+  </si>
+  <si>
+    <t>01.01.2020</t>
+  </si>
+  <si>
+    <t>20.02.2020</t>
+  </si>
+  <si>
+    <t>28.02.2020</t>
+  </si>
+  <si>
+    <t>05.06.2020</t>
+  </si>
+  <si>
+    <t>03.03.2020</t>
+  </si>
+  <si>
+    <t>01.04.2020</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>24.02.2020</t>
+  </si>
+  <si>
+    <t>01.03.2020</t>
+  </si>
+  <si>
+    <t>05.03.2020</t>
+  </si>
+  <si>
+    <t>15.06.2020</t>
+  </si>
+  <si>
+    <t>06.03.2020</t>
   </si>
   <si>
     <t>Название</t>
@@ -120,9 +157,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -175,12 +209,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,6 +572,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>72.33333333333333</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>72.33333333333333</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -593,8 +690,14 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
-        <v>43831</v>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -619,14 +722,14 @@
       <c r="E3">
         <v>3.333333333333333</v>
       </c>
-      <c r="F3" s="2">
-        <v>43881</v>
-      </c>
-      <c r="G3" s="2">
-        <v>43885</v>
-      </c>
-      <c r="H3" s="2">
-        <v>43885</v>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -651,14 +754,14 @@
       <c r="E4">
         <v>3.333333333333333</v>
       </c>
-      <c r="F4" s="2">
-        <v>43889</v>
-      </c>
-      <c r="G4" s="2">
-        <v>43891</v>
-      </c>
-      <c r="H4" s="2">
-        <v>43891</v>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -683,14 +786,14 @@
       <c r="E5">
         <v>3.333333333333333</v>
       </c>
-      <c r="F5" s="2">
-        <v>43987</v>
-      </c>
-      <c r="G5" s="2">
-        <v>43987</v>
-      </c>
-      <c r="H5" s="2">
-        <v>43987</v>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -715,14 +818,14 @@
       <c r="E6">
         <v>3.333333333333333</v>
       </c>
-      <c r="F6" s="2">
-        <v>43893</v>
-      </c>
-      <c r="G6" s="2">
-        <v>43895</v>
-      </c>
-      <c r="H6" s="2">
-        <v>43896</v>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -747,14 +850,14 @@
       <c r="E7">
         <v>3.333333333333333</v>
       </c>
-      <c r="F7" s="2">
-        <v>43922</v>
-      </c>
-      <c r="G7" s="2">
-        <v>43922</v>
-      </c>
-      <c r="H7" s="2">
-        <v>43922</v>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -779,14 +882,14 @@
       <c r="E8">
         <v>2.333333333333333</v>
       </c>
-      <c r="F8" s="2">
-        <v>43987</v>
-      </c>
-      <c r="G8" s="2">
-        <v>43997</v>
-      </c>
-      <c r="H8" s="2">
-        <v>43997</v>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -811,14 +914,14 @@
       <c r="E9">
         <v>3.333333333333333</v>
       </c>
-      <c r="F9" s="2">
-        <v>43987</v>
-      </c>
-      <c r="G9" s="2">
-        <v>43987</v>
-      </c>
-      <c r="H9" s="2">
-        <v>43987</v>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -843,8 +946,14 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="2">
-        <v>43831</v>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -869,14 +978,14 @@
       <c r="E11">
         <v>3.333333333333333</v>
       </c>
-      <c r="F11" s="2">
-        <v>43881</v>
-      </c>
-      <c r="G11" s="2">
-        <v>43885</v>
-      </c>
-      <c r="H11" s="2">
-        <v>43885</v>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -901,14 +1010,14 @@
       <c r="E12">
         <v>3.333333333333333</v>
       </c>
-      <c r="F12" s="2">
-        <v>43889</v>
-      </c>
-      <c r="G12" s="2">
-        <v>43891</v>
-      </c>
-      <c r="H12" s="2">
-        <v>43891</v>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -933,14 +1042,14 @@
       <c r="E13">
         <v>3.333333333333333</v>
       </c>
-      <c r="F13" s="2">
-        <v>43893</v>
-      </c>
-      <c r="G13" s="2">
-        <v>43895</v>
-      </c>
-      <c r="H13" s="2">
-        <v>43896</v>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -965,14 +1074,14 @@
       <c r="E14">
         <v>3.333333333333333</v>
       </c>
-      <c r="F14" s="2">
-        <v>43922</v>
-      </c>
-      <c r="G14" s="2">
-        <v>43922</v>
-      </c>
-      <c r="H14" s="2">
-        <v>43922</v>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -997,14 +1106,14 @@
       <c r="E15">
         <v>2.333333333333333</v>
       </c>
-      <c r="F15" s="2">
-        <v>43987</v>
-      </c>
-      <c r="G15" s="2">
-        <v>43997</v>
-      </c>
-      <c r="H15" s="2">
-        <v>43997</v>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -1029,14 +1138,14 @@
       <c r="E16">
         <v>3.333333333333333</v>
       </c>
-      <c r="F16" s="2">
-        <v>43987</v>
-      </c>
-      <c r="G16" s="2">
-        <v>43987</v>
-      </c>
-      <c r="H16" s="2">
-        <v>43987</v>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1061,14 +1170,14 @@
       <c r="E17">
         <v>3.333333333333333</v>
       </c>
-      <c r="F17" s="2">
-        <v>43987</v>
-      </c>
-      <c r="G17" s="2">
-        <v>43987</v>
-      </c>
-      <c r="H17" s="2">
-        <v>43987</v>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1082,7 +1191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1095,16 +1204,16 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1117,11 +1226,11 @@
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
-        <v>43831</v>
-      </c>
-      <c r="E2" s="2">
-        <v>43987</v>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1134,11 +1243,11 @@
       <c r="C3">
         <v>12.33333333333333</v>
       </c>
-      <c r="D3" s="2">
-        <v>43987</v>
-      </c>
-      <c r="E3" s="2">
-        <v>43987</v>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1151,11 +1260,11 @@
       <c r="C4">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
-        <v>43831</v>
-      </c>
-      <c r="E4" s="2">
-        <v>43922</v>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1168,11 +1277,11 @@
       <c r="C5">
         <v>12.33333333333333</v>
       </c>
-      <c r="D5" s="2">
-        <v>43922</v>
-      </c>
-      <c r="E5" s="2">
-        <v>43987</v>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1180,7 +1289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1190,7 +1299,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1198,7 +1307,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1206,7 +1315,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>50</v>

--- a/Сourse I/Алгоритмы Python/Part2/семинары/pract4/отчет.xlsx
+++ b/Сourse I/Алгоритмы Python/Part2/семинары/pract4/отчет.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Общее" sheetId="1" r:id="rId1"/>
+    <sheet name="Аттестация 1" sheetId="1" r:id="rId1"/>
     <sheet name="Студенты" sheetId="2" r:id="rId2"/>
     <sheet name="Работы" sheetId="3" r:id="rId3"/>
     <sheet name="Аттестации" sheetId="4" r:id="rId4"/>
@@ -18,21 +18,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="51">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Практика рекурсия (практика)</t>
+  </si>
+  <si>
+    <t>Контрольная работа (контрольная)</t>
+  </si>
+  <si>
+    <t>Тест лекция (тестирование)</t>
+  </si>
+  <si>
+    <t>Практика по модулям (практика)</t>
+  </si>
+  <si>
+    <t>ИТОГИ</t>
+  </si>
   <si>
     <t>ФИО</t>
-  </si>
-  <si>
-    <t>Группа</t>
-  </si>
-  <si>
-    <t>Курс</t>
-  </si>
-  <si>
-    <t>Баллы</t>
-  </si>
-  <si>
-    <t>Оценка</t>
   </si>
   <si>
     <t>Деменчук Георгий Максимович</t>
@@ -42,6 +48,66 @@
 </t>
   </si>
   <si>
+    <t>Баллы</t>
+  </si>
+  <si>
+    <t>Дата дедлайна</t>
+  </si>
+  <si>
+    <t>01.01.2020</t>
+  </si>
+  <si>
+    <t>Дата завершения</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Дата защиты</t>
+  </si>
+  <si>
+    <t>20.02.2020</t>
+  </si>
+  <si>
+    <t>24.02.2020</t>
+  </si>
+  <si>
+    <t>28.02.2020</t>
+  </si>
+  <si>
+    <t>01.03.2020</t>
+  </si>
+  <si>
+    <t>05.06.2020</t>
+  </si>
+  <si>
+    <t>03.03.2020</t>
+  </si>
+  <si>
+    <t>05.03.2020</t>
+  </si>
+  <si>
+    <t>06.03.2020</t>
+  </si>
+  <si>
+    <t>Баллы за аттестацию</t>
+  </si>
+  <si>
+    <t>Общая оценка</t>
+  </si>
+  <si>
+    <t>Общее кол-во баллов</t>
+  </si>
+  <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t>Курс</t>
+  </si>
+  <si>
+    <t>Оценка</t>
+  </si>
+  <si>
     <t>ПИ19-4</t>
   </si>
   <si>
@@ -60,21 +126,6 @@
     <t>Тип работы</t>
   </si>
   <si>
-    <t>Дата дедлайна</t>
-  </si>
-  <si>
-    <t>Дата завершения</t>
-  </si>
-  <si>
-    <t>Дата защиты</t>
-  </si>
-  <si>
-    <t>Завершена</t>
-  </si>
-  <si>
-    <t>Защищена</t>
-  </si>
-  <si>
     <t>Промежуточная аттестация №1</t>
   </si>
   <si>
@@ -105,40 +156,10 @@
     <t>тестирование</t>
   </si>
   <si>
-    <t>01.01.2020</t>
-  </si>
-  <si>
-    <t>20.02.2020</t>
-  </si>
-  <si>
-    <t>28.02.2020</t>
-  </si>
-  <si>
-    <t>05.06.2020</t>
-  </si>
-  <si>
-    <t>03.03.2020</t>
-  </si>
-  <si>
     <t>01.04.2020</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>24.02.2020</t>
-  </si>
-  <si>
-    <t>01.03.2020</t>
-  </si>
-  <si>
-    <t>05.03.2020</t>
-  </si>
-  <si>
     <t>15.06.2020</t>
-  </si>
-  <si>
-    <t>06.03.2020</t>
   </si>
   <si>
     <t>Название</t>
@@ -508,61 +529,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>72.33333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
         <v>72.33333333333333</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>72.33333333333333</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -580,30 +770,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>72.33333333333333</v>
@@ -614,13 +804,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>72.33333333333333</v>
@@ -636,554 +826,452 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>2.333333333333333</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>3.333333333333333</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="H13" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="H12" t="s">
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E15">
         <v>2.333333333333333</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <v>3.333333333333333</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E17">
         <v>3.333333333333333</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1201,87 +1289,87 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>12.33333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>12.33333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1299,15 +1387,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1315,7 +1403,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>50</v>

--- a/Сourse I/Алгоритмы Python/Part2/семинары/pract4/отчет.xlsx
+++ b/Сourse I/Алгоритмы Python/Part2/семинары/pract4/отчет.xlsx
@@ -7,18 +7,19 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Аттестация 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Студенты" sheetId="2" r:id="rId2"/>
-    <sheet name="Работы" sheetId="3" r:id="rId3"/>
-    <sheet name="Аттестации" sheetId="4" r:id="rId4"/>
-    <sheet name="Экзамены" sheetId="5" r:id="rId5"/>
+    <sheet name="Промежуточная аттестация №1" sheetId="1" r:id="rId1"/>
+    <sheet name="Промежуточная аттестация №2" sheetId="2" r:id="rId2"/>
+    <sheet name="Студенты" sheetId="3" r:id="rId3"/>
+    <sheet name="Работы" sheetId="4" r:id="rId4"/>
+    <sheet name="Аттестации" sheetId="5" r:id="rId5"/>
+    <sheet name="Экзамены" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="52">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -99,6 +100,15 @@
     <t>Общее кол-во баллов</t>
   </si>
   <si>
+    <t>Контрольная на 5 часов (контрольная)</t>
+  </si>
+  <si>
+    <t>01.04.2020</t>
+  </si>
+  <si>
+    <t>15.06.2020</t>
+  </si>
+  <si>
     <t>Группа</t>
   </si>
   <si>
@@ -154,12 +164,6 @@
   </si>
   <si>
     <t>тестирование</t>
-  </si>
-  <si>
-    <t>01.04.2020</t>
-  </si>
-  <si>
-    <t>15.06.2020</t>
   </si>
   <si>
     <t>Название</t>
@@ -762,6 +766,239 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3">
+        <v>12.33333333333333</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>72.33333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4">
+        <v>12.33333333333333</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>72.33333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -773,16 +1010,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -790,10 +1027,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>72.33333333333333</v>
@@ -807,10 +1044,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>72.33333333333333</v>
@@ -824,7 +1061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -834,16 +1071,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -863,13 +1100,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -889,13 +1126,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>3.333333333333333</v>
@@ -915,13 +1152,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>3.333333333333333</v>
@@ -941,13 +1178,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>3.333333333333333</v>
@@ -967,13 +1204,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>3.333333333333333</v>
@@ -993,25 +1230,25 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>3.333333333333333</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1019,13 +1256,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>2.333333333333333</v>
@@ -1034,10 +1271,10 @@
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1045,13 +1282,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>3.333333333333333</v>
@@ -1071,13 +1308,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1097,13 +1334,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>3.333333333333333</v>
@@ -1123,13 +1360,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E12">
         <v>3.333333333333333</v>
@@ -1149,13 +1386,13 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>3.333333333333333</v>
@@ -1175,25 +1412,25 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E14">
         <v>3.333333333333333</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1201,13 +1438,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>2.333333333333333</v>
@@ -1216,10 +1453,10 @@
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1227,13 +1464,13 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>3.333333333333333</v>
@@ -1253,13 +1490,13 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>3.333333333333333</v>
@@ -1279,7 +1516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1289,19 +1526,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1309,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -1326,7 +1563,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>12.33333333333333</v>
@@ -1343,7 +1580,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1352,7 +1589,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1360,13 +1597,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>12.33333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -1377,7 +1614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1387,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -1395,7 +1632,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1403,7 +1640,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>50</v>

--- a/Сourse I/Алгоритмы Python/Part2/семинары/pract4/отчет.xlsx
+++ b/Сourse I/Алгоритмы Python/Part2/семинары/pract4/отчет.xlsx
@@ -652,7 +652,7 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -664,7 +664,7 @@
         <v>16</v>
       </c>
       <c r="J3">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -676,7 +676,7 @@
         <v>18</v>
       </c>
       <c r="N3">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
@@ -688,13 +688,13 @@
         <v>19</v>
       </c>
       <c r="R3">
-        <v>10</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="S3">
         <v>4</v>
       </c>
       <c r="T3">
-        <v>72.33333333333333</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -714,7 +714,7 @@
         <v>13</v>
       </c>
       <c r="F4">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -726,7 +726,7 @@
         <v>16</v>
       </c>
       <c r="J4">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
@@ -738,7 +738,7 @@
         <v>18</v>
       </c>
       <c r="N4">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="O4" t="s">
         <v>20</v>
@@ -750,13 +750,13 @@
         <v>22</v>
       </c>
       <c r="R4">
-        <v>10</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="S4">
         <v>4</v>
       </c>
       <c r="T4">
-        <v>72.33333333333333</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -873,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -885,7 +885,7 @@
         <v>22</v>
       </c>
       <c r="F3">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -897,7 +897,7 @@
         <v>27</v>
       </c>
       <c r="J3">
-        <v>2.333333333333333</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
@@ -909,7 +909,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
@@ -921,13 +921,13 @@
         <v>19</v>
       </c>
       <c r="R3">
-        <v>12.33333333333333</v>
+        <v>12.2</v>
       </c>
       <c r="S3">
         <v>4</v>
       </c>
       <c r="T3">
-        <v>72.33333333333333</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -935,7 +935,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -947,7 +947,7 @@
         <v>27</v>
       </c>
       <c r="F4">
-        <v>2.333333333333333</v>
+        <v>2.3</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -959,7 +959,7 @@
         <v>28</v>
       </c>
       <c r="J4">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
@@ -971,7 +971,7 @@
         <v>19</v>
       </c>
       <c r="N4">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="O4" t="s">
         <v>19</v>
@@ -983,13 +983,13 @@
         <v>19</v>
       </c>
       <c r="R4">
-        <v>12.33333333333333</v>
+        <v>12.2</v>
       </c>
       <c r="S4">
         <v>4</v>
       </c>
       <c r="T4">
-        <v>72.33333333333333</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1033,7 +1033,7 @@
         <v>33</v>
       </c>
       <c r="D2">
-        <v>72.33333333333333</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -1050,7 +1050,7 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <v>72.33333333333333</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -1135,7 +1135,7 @@
         <v>46</v>
       </c>
       <c r="E3">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -1161,7 +1161,7 @@
         <v>47</v>
       </c>
       <c r="E4">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -1187,7 +1187,7 @@
         <v>45</v>
       </c>
       <c r="E5">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -1213,7 +1213,7 @@
         <v>45</v>
       </c>
       <c r="E6">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -1239,7 +1239,7 @@
         <v>47</v>
       </c>
       <c r="E7">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1265,7 +1265,7 @@
         <v>46</v>
       </c>
       <c r="E8">
-        <v>2.333333333333333</v>
+        <v>2.3</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -1291,7 +1291,7 @@
         <v>45</v>
       </c>
       <c r="E9">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -1343,7 +1343,7 @@
         <v>46</v>
       </c>
       <c r="E11">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -1369,7 +1369,7 @@
         <v>47</v>
       </c>
       <c r="E12">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -1395,7 +1395,7 @@
         <v>45</v>
       </c>
       <c r="E13">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -1421,7 +1421,7 @@
         <v>47</v>
       </c>
       <c r="E14">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
@@ -1447,7 +1447,7 @@
         <v>46</v>
       </c>
       <c r="E15">
-        <v>2.333333333333333</v>
+        <v>2.3</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -1473,7 +1473,7 @@
         <v>45</v>
       </c>
       <c r="E16">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -1499,7 +1499,7 @@
         <v>45</v>
       </c>
       <c r="E17">
-        <v>3.333333333333333</v>
+        <v>3.3</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -1549,7 +1549,7 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1566,7 +1566,7 @@
         <v>39</v>
       </c>
       <c r="C3">
-        <v>12.33333333333333</v>
+        <v>12.2</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -1583,7 +1583,7 @@
         <v>38</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1600,7 +1600,7 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>12.33333333333333</v>
+        <v>12.2</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>

--- a/Сourse I/Алгоритмы Python/Part2/семинары/pract4/отчет.xlsx
+++ b/Сourse I/Алгоритмы Python/Part2/семинары/pract4/отчет.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="53">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -94,10 +94,13 @@
     <t>Баллы за аттестацию</t>
   </si>
   <si>
+    <t>Баллы за экзамен</t>
+  </si>
+  <si>
+    <t>Общее кол-во баллов</t>
+  </si>
+  <si>
     <t>Общая оценка</t>
-  </si>
-  <si>
-    <t>Общее кол-во баллов</t>
   </si>
   <si>
     <t>Контрольная на 5 часов (контрольная)</t>
@@ -533,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,8 +575,9 @@
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -634,8 +638,11 @@
       <c r="T2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -691,13 +698,16 @@
         <v>9.899999999999999</v>
       </c>
       <c r="S3">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="T3">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -753,10 +763,13 @@
         <v>9.899999999999999</v>
       </c>
       <c r="S4">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="T4">
         <v>72</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -766,13 +779,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,7 +802,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -805,8 +818,9 @@
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -867,8 +881,11 @@
       <c r="T2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -888,13 +905,13 @@
         <v>3.3</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3">
         <v>2.3</v>
@@ -903,10 +920,10 @@
         <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>3.3</v>
@@ -924,13 +941,16 @@
         <v>12.2</v>
       </c>
       <c r="S3">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="T3">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -938,13 +958,13 @@
         <v>3.3</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>2.3</v>
@@ -953,10 +973,10 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4">
         <v>3.3</v>
@@ -986,10 +1006,13 @@
         <v>12.2</v>
       </c>
       <c r="S4">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="T4">
         <v>72</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1010,16 +1033,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1027,10 +1050,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2">
         <v>72</v>
@@ -1044,10 +1067,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>72</v>
@@ -1071,16 +1094,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -1100,13 +1123,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1126,13 +1149,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>3.3</v>
@@ -1152,13 +1175,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>3.3</v>
@@ -1178,13 +1201,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5">
         <v>3.3</v>
@@ -1204,13 +1227,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>3.3</v>
@@ -1230,25 +1253,25 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>3.3</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1256,13 +1279,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>2.3</v>
@@ -1271,10 +1294,10 @@
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1282,13 +1305,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>3.3</v>
@@ -1308,13 +1331,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1334,13 +1357,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <v>3.3</v>
@@ -1360,13 +1383,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>3.3</v>
@@ -1386,13 +1409,13 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>3.3</v>
@@ -1412,25 +1435,25 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>3.3</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1438,13 +1461,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15">
         <v>2.3</v>
@@ -1453,10 +1476,10 @@
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1464,13 +1487,13 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>3.3</v>
@@ -1490,13 +1513,13 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <v>3.3</v>
@@ -1526,19 +1549,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1546,7 +1569,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>9.899999999999999</v>
@@ -1563,7 +1586,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>12.2</v>
@@ -1580,7 +1603,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>9.899999999999999</v>
@@ -1589,7 +1612,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1597,13 +1620,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>12.2</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -1624,7 +1647,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -1632,7 +1655,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1640,7 +1663,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>50</v>

--- a/Сourse I/Алгоритмы Python/Part2/семинары/pract4/отчет.xlsx
+++ b/Сourse I/Алгоритмы Python/Part2/семинары/pract4/отчет.xlsx
@@ -42,7 +42,7 @@
     <t>ФИО</t>
   </si>
   <si>
-    <t>Деменчук Георгий Максимович</t>
+    <t>Жмышенко Валерий Альбертович</t>
   </si>
   <si>
     <t xml:space="preserve">Жевагина Анастасия Анатольевна

--- a/Сourse I/Алгоритмы Python/Part2/семинары/pract4/отчет.xlsx
+++ b/Сourse I/Алгоритмы Python/Part2/семинары/pract4/отчет.xlsx
@@ -19,12 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="58">
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Практика рекурсия (практика)</t>
+    <t>Практика РРР (контрольная)</t>
   </si>
   <si>
     <t>Контрольная работа (контрольная)</t>
@@ -42,7 +42,7 @@
     <t>ФИО</t>
   </si>
   <si>
-    <t>Жмышенко Валерий Альбертович</t>
+    <t>КОТ</t>
   </si>
   <si>
     <t xml:space="preserve">Жевагина Анастасия Анатольевна
@@ -61,12 +61,18 @@
     <t>Дата завершения</t>
   </si>
   <si>
+    <t>02.01.2020</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
     <t>Дата защиты</t>
   </si>
   <si>
+    <t>10.01.2020</t>
+  </si>
+  <si>
     <t>20.02.2020</t>
   </si>
   <si>
@@ -121,9 +127,15 @@
     <t>Оценка</t>
   </si>
   <si>
+    <t>МЯВ</t>
+  </si>
+  <si>
     <t>ПИ19-4</t>
   </si>
   <si>
+    <t>1111</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -145,28 +157,31 @@
     <t>Промежуточная аттестация №2</t>
   </si>
   <si>
+    <t>Практика РРР</t>
+  </si>
+  <si>
+    <t>Контрольная работа</t>
+  </si>
+  <si>
+    <t>Тест лекция</t>
+  </si>
+  <si>
+    <t>Практика по модулям</t>
+  </si>
+  <si>
+    <t>Контрольная на 5 часов</t>
+  </si>
+  <si>
     <t>Практика рекурсия</t>
   </si>
   <si>
-    <t>Контрольная работа</t>
-  </si>
-  <si>
-    <t>Тест лекция</t>
-  </si>
-  <si>
-    <t>Практика по модулям</t>
-  </si>
-  <si>
-    <t>Контрольная на 5 часов</t>
+    <t>контрольная</t>
+  </si>
+  <si>
+    <t>тестирование</t>
   </si>
   <si>
     <t>практика</t>
-  </si>
-  <si>
-    <t>контрольная</t>
-  </si>
-  <si>
-    <t>тестирование</t>
   </si>
   <si>
     <t>Название</t>
@@ -591,7 +606,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -603,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
@@ -615,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
         <v>9</v>
@@ -627,19 +642,19 @@
         <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -647,7 +662,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -656,52 +671,52 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>3.3</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J3">
         <v>3.3</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N3">
         <v>3.3</v>
       </c>
       <c r="O3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R3">
-        <v>9.899999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="S3">
         <v>50</v>
       </c>
       <c r="T3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U3">
         <v>4</v>
@@ -718,46 +733,46 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>3.3</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J4">
         <v>3.3</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N4">
         <v>3.3</v>
       </c>
       <c r="O4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R4">
         <v>9.899999999999999</v>
@@ -802,7 +817,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -834,7 +849,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -846,7 +861,7 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
@@ -858,7 +873,7 @@
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
         <v>9</v>
@@ -870,19 +885,19 @@
         <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -893,49 +908,49 @@
         <v>3.3</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <v>3.3</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>2.3</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>3.3</v>
       </c>
       <c r="O3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R3">
         <v>12.2</v>
@@ -944,7 +959,7 @@
         <v>50</v>
       </c>
       <c r="T3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U3">
         <v>4</v>
@@ -958,49 +973,49 @@
         <v>3.3</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>2.3</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4">
         <v>3.3</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>3.3</v>
       </c>
       <c r="O4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R4">
         <v>12.2</v>
@@ -1033,16 +1048,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1050,13 +1065,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -1067,10 +1082,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>72</v>
@@ -1094,16 +1109,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -1115,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1123,16 +1138,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -1141,7 +1156,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1149,25 +1164,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>3.3</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1175,25 +1190,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E4">
         <v>3.3</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1201,25 +1216,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>3.3</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1227,25 +1242,25 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>3.3</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1253,25 +1268,25 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>3.3</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1279,25 +1294,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>2.3</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1305,25 +1320,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>3.3</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1331,13 +1346,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1346,10 +1361,10 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1357,25 +1372,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E11">
         <v>3.3</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1383,25 +1398,25 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E12">
         <v>3.3</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1409,25 +1424,25 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E13">
         <v>3.3</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1435,25 +1450,25 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E14">
         <v>3.3</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1461,25 +1476,25 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <v>2.3</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1487,25 +1502,25 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E16">
         <v>3.3</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1513,25 +1528,25 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>3.3</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1549,19 +1564,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1569,16 +1584,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C2">
-        <v>9.899999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1586,16 +1601,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>12.2</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1603,7 +1618,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>9.899999999999999</v>
@@ -1612,7 +1627,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1620,16 +1635,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>12.2</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1647,7 +1662,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -1655,7 +1670,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1663,7 +1678,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>50</v>
